--- a/pytest_project/excel_data/Admin/register.xlsx
+++ b/pytest_project/excel_data/Admin/register.xlsx
@@ -744,12 +744,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>admin5001</t>
+          <t>admin7912</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>1646644533@qq.com</t>
+          <t>1647330667@qq.com</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">

--- a/pytest_project/excel_data/Admin/register.xlsx
+++ b/pytest_project/excel_data/Admin/register.xlsx
@@ -744,12 +744,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>admin7912</t>
+          <t>admin6506</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>1647330667@qq.com</t>
+          <t>1649209499@qq.com</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">

--- a/pytest_project/excel_data/Admin/register.xlsx
+++ b/pytest_project/excel_data/Admin/register.xlsx
@@ -744,12 +744,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>admin6506</t>
+          <t>admin3793</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>1649209499@qq.com</t>
+          <t>1651735288@qq.com</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">

--- a/pytest_project/excel_data/Admin/register.xlsx
+++ b/pytest_project/excel_data/Admin/register.xlsx
@@ -744,12 +744,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>admin3793</t>
+          <t>admin6463</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>1651735288@qq.com</t>
+          <t>1652771704@qq.com</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">

--- a/pytest_project/excel_data/Admin/register.xlsx
+++ b/pytest_project/excel_data/Admin/register.xlsx
@@ -744,12 +744,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>admin6463</t>
+          <t>admin2874</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>1652771704@qq.com</t>
+          <t>1654653608@qq.com</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
